--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\university\zh\layuiAdmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\university\zhglxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853184AC-14F9-465B-9ADB-9D19E7E5CED5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A6ED5-8725-4462-8EAD-66F0C6DB1B51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{F85B74C9-99AE-4E64-A8DE-B826BAE955ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scope</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,15 +74,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
